--- a/MillenniumHistory/Win32/DebugWindows/Resource/AncientBooks/Year.xlsx
+++ b/MillenniumHistory/Win32/DebugWindows/Resource/AncientBooks/Year.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>@default</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>ReignTitle</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
   <si>
     <t>Id</t>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>int64</t>
+  </si>
+  <si>
+    <t>int64[]</t>
   </si>
   <si>
     <t>int[]</t>
@@ -1023,7 +1029,7 @@
   <dimension ref="A1:G2863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="6"/>
@@ -1036,7 +1042,7 @@
     <col min="7" max="16384" width="9.77777777777778" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,74 +1052,80 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
